--- a/Resolucion ej221.xlsx
+++ b/Resolucion ej221.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>Planteo</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>interrupción espera colectivo</t>
+  </si>
+  <si>
+    <t>Estado Parada</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,6 +282,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -744,10 +750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB4"/>
+  <dimension ref="A2:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,17 +767,17 @@
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="10" max="11" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
@@ -786,22 +792,23 @@
         <v>36</v>
       </c>
       <c r="J2" s="9"/>
-      <c r="R2" s="8" t="s">
+      <c r="K2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="W2" s="8" t="s">
+      <c r="T2" s="8"/>
+      <c r="X2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
-    </row>
-    <row r="3" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="AC2" s="8"/>
+    </row>
+    <row r="3" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -833,73 +840,76 @@
         <v>44</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="Y4" s="1" t="s">
+    <row r="4" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resolucion ej221.xlsx
+++ b/Resolucion ej221.xlsx
@@ -9,13 +9,74 @@
   <sheets>
     <sheet name="Planteo" sheetId="1" r:id="rId1"/>
     <sheet name="Resolucion" sheetId="2" r:id="rId2"/>
+    <sheet name="Rnd" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="L8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se cuenta los que estan en estado "EsperandoColectivo"
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Restar recien cuando se da un fin ascenso pasajero
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
   <si>
     <t>Planteo</t>
   </si>
@@ -85,121 +146,167 @@
     <t>Temporal</t>
   </si>
   <si>
+    <t>Calculos adicionales</t>
+  </si>
+  <si>
+    <t>Cantidad pasajeros retirados</t>
+  </si>
+  <si>
+    <t>Cola maxima de pasajeros</t>
+  </si>
+  <si>
+    <t>Promedio de espera de pasajeros en cola</t>
+  </si>
+  <si>
+    <t>Porcentaje de colectivos que pasan sin subir pasajeros</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Reloj</t>
+  </si>
+  <si>
+    <t>RND</t>
+  </si>
+  <si>
+    <t>tiempo llegada</t>
+  </si>
+  <si>
+    <t>Proxima Legada</t>
+  </si>
+  <si>
+    <t>tiempo ascenso pasajero</t>
+  </si>
+  <si>
+    <t>Maxima Cantidad Personas en Cola</t>
+  </si>
+  <si>
+    <t>Cola Colectivo</t>
+  </si>
+  <si>
+    <t>Cant Colectivo sin subir pasajeros</t>
+  </si>
+  <si>
+    <t>Cant pasajeros retirados</t>
+  </si>
+  <si>
+    <t>Estado Colectivo</t>
+  </si>
+  <si>
+    <t>Capacidad (determinar si incrementar hasta 40 o decrementar)</t>
+  </si>
+  <si>
+    <t>Fin ascenso</t>
+  </si>
+  <si>
+    <t>Cant Pasajeros subidos</t>
+  </si>
+  <si>
+    <t>Tiempo acum espera en cola</t>
+  </si>
+  <si>
+    <t>Promedio de espera pasajero en cola</t>
+  </si>
+  <si>
+    <t>Total colectivos que pasan por cola</t>
+  </si>
+  <si>
+    <t>Porcentaje de colectivos que pasan sin subir</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Inicio espera en cola</t>
+  </si>
+  <si>
+    <t>Fin espera cola / Se retira</t>
+  </si>
+  <si>
+    <t>sumar inicio espera en cola + 10</t>
+  </si>
+  <si>
+    <t>Pasajero 1</t>
+  </si>
+  <si>
+    <t>Pasajero 2</t>
+  </si>
+  <si>
+    <t>interrupción espera colectivo</t>
+  </si>
+  <si>
+    <t>Estado Parada</t>
+  </si>
+  <si>
+    <t>Llegada Colectivo -6*LN(1-rnd)</t>
+  </si>
+  <si>
+    <t>Llegada Pasajero              -3*LN(1-rnd)</t>
+  </si>
+  <si>
+    <t>Fin ascenso pasajero cte 5</t>
+  </si>
+  <si>
+    <t>Libre</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Llegada Pasajero</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>Pasajero 3</t>
+  </si>
+  <si>
+    <t>Pasajero 4</t>
+  </si>
+  <si>
+    <t>Pasajero 5</t>
+  </si>
+  <si>
+    <t>Llegada Colectivo</t>
+  </si>
+  <si>
+    <t>Ocupada</t>
+  </si>
+  <si>
+    <t>Cargando Pasajeros</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Cola personas en Parada</t>
+  </si>
+  <si>
     <t>Esperando en Parada (EP)
 Subiendo Colectivo(SB)
+En Colectivo (EnC)
 Retirado</t>
   </si>
   <si>
-    <t>Calculos adicionales</t>
-  </si>
-  <si>
-    <t>Cantidad pasajeros retirados</t>
-  </si>
-  <si>
-    <t>Cola maxima de pasajeros</t>
-  </si>
-  <si>
-    <t>Promedio de espera de pasajeros en cola</t>
-  </si>
-  <si>
-    <t>Porcentaje de colectivos que pasan sin subir pasajeros</t>
-  </si>
-  <si>
-    <t>Evento</t>
-  </si>
-  <si>
-    <t>Reloj</t>
-  </si>
-  <si>
-    <t>RND</t>
-  </si>
-  <si>
-    <t>tiempo llegada</t>
-  </si>
-  <si>
-    <t>Proxima Legada</t>
-  </si>
-  <si>
-    <t>Llegada Colectivo</t>
-  </si>
-  <si>
-    <t>Llegada Pasajero</t>
-  </si>
-  <si>
-    <t>tiempo ascenso pasajero</t>
-  </si>
-  <si>
-    <t>Fin ascenso pasajero</t>
-  </si>
-  <si>
-    <t>Cola Parada</t>
-  </si>
-  <si>
-    <t>Maxima Cantidad Personas en Cola</t>
-  </si>
-  <si>
-    <t>Cola Colectivo</t>
-  </si>
-  <si>
-    <t>Cant Colectivo sin subir pasajeros</t>
-  </si>
-  <si>
-    <t>Cant pasajeros retirados</t>
-  </si>
-  <si>
-    <t>Estado Colectivo</t>
-  </si>
-  <si>
-    <t>Capacidad (determinar si incrementar hasta 40 o decrementar)</t>
-  </si>
-  <si>
-    <t>Fin ascenso</t>
-  </si>
-  <si>
-    <t>Cant Pasajeros subidos</t>
-  </si>
-  <si>
-    <t>Tiempo acum espera en cola</t>
-  </si>
-  <si>
-    <t>Promedio de espera pasajero en cola</t>
-  </si>
-  <si>
-    <t>Total colectivos que pasan por cola</t>
-  </si>
-  <si>
-    <t>Porcentaje de colectivos que pasan sin subir</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Inicio espera en cola</t>
-  </si>
-  <si>
-    <t>Fin espera cola / Se retira</t>
-  </si>
-  <si>
-    <t>sumar inicio espera en cola + 10</t>
-  </si>
-  <si>
-    <t>Pasajero 1</t>
-  </si>
-  <si>
-    <t>Pasajero 2</t>
-  </si>
-  <si>
-    <t>interrupción espera colectivo</t>
-  </si>
-  <si>
-    <t>Estado Parada</t>
+    <t>Fin Ascenso Pasajero</t>
+  </si>
+  <si>
+    <t>EnC</t>
+  </si>
+  <si>
+    <t>Pasajero 6</t>
+  </si>
+  <si>
+    <t>Pasajero 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +322,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +358,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -277,6 +415,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,8 +428,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,7 +738,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +787,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -695,7 +839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -703,38 +847,38 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -749,21 +893,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AR14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -771,146 +915,1481 @@
     <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
     <col min="18" max="18" width="13.7109375" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="7"/>
+      <c r="S2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="12"/>
+      <c r="X2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+    </row>
+    <row r="3" spans="1:44" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="N3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="S2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="8"/>
-      <c r="X2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-    </row>
-    <row r="3" spans="1:29" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="S3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>Rnd!A1</f>
+        <v>0.67459999999999998</v>
+      </c>
+      <c r="D4">
+        <f>-6*LN(1-C4)</f>
+        <v>6.7362005051831968</v>
+      </c>
+      <c r="E4">
+        <f>D4</f>
+        <v>6.7362005051831968</v>
+      </c>
+      <c r="F4">
+        <f>Rnd!A2</f>
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <f>-3*LN(1-F4)</f>
+        <v>3.2576230004627837E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <f>G4</f>
+        <v>3.2576230004627837E-2</v>
+      </c>
+      <c r="I4" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <f>H4</f>
+        <v>3.2576230004627837E-2</v>
+      </c>
+      <c r="E5">
+        <f>+E4</f>
+        <v>6.7362005051831968</v>
+      </c>
+      <c r="F5">
+        <f>Rnd!A3</f>
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="G5">
+        <f>-3*LN(1-F5)</f>
+        <v>2.6139520986942717</v>
+      </c>
+      <c r="H5" s="8">
+        <f>G5+B5</f>
+        <v>2.6465283286988996</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5">
+        <f>B5</f>
+        <v>3.2576230004627837E-2</v>
+      </c>
+      <c r="Z5">
+        <f>Y5+10</f>
+        <v>10.032576230004628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <f>H5</f>
+        <v>2.6465283286988996</v>
+      </c>
+      <c r="E6" s="8">
+        <f>E5</f>
+        <v>6.7362005051831968</v>
+      </c>
+      <c r="F6">
+        <f>Rnd!A4</f>
+        <v>0.8881</v>
+      </c>
+      <c r="G6">
+        <f>-3*LN(1-F6)</f>
+        <v>6.570448990992773</v>
+      </c>
+      <c r="H6">
+        <f>G6+B6</f>
+        <v>9.2169773196916722</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6">
+        <v>3.2576230004627837E-2</v>
+      </c>
+      <c r="Z6">
+        <v>10.032576230004628</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6">
+        <f>B6</f>
+        <v>2.6465283286988996</v>
+      </c>
+      <c r="AC6">
+        <f>+AB6+10</f>
+        <v>12.646528328698899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <f>E6</f>
+        <v>6.7362005051831968</v>
+      </c>
+      <c r="C7">
+        <f>Rnd!A5</f>
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="D7">
+        <f>-6*LN(1-C7)</f>
+        <v>23.685901098427788</v>
+      </c>
+      <c r="E7">
+        <f>D7+B7</f>
+        <v>30.422101603610983</v>
+      </c>
+      <c r="H7" s="8">
+        <f>H6</f>
+        <v>9.2169773196916722</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f>I7+B7</f>
+        <v>11.736200505183197</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7">
+        <v>40</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>B7-Y6</f>
+        <v>6.7036242751785693</v>
+      </c>
+      <c r="W7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y7">
+        <v>3.2576230004627837E-2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB7">
+        <v>2.6465283286988996</v>
+      </c>
+      <c r="AC7">
+        <v>12.646528328698899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f>H7</f>
+        <v>9.2169773196916722</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E14" si="0">E7</f>
+        <v>30.422101603610983</v>
+      </c>
+      <c r="F8">
+        <f>Rnd!A6</f>
+        <v>0.40329999999999999</v>
+      </c>
+      <c r="G8">
+        <f>-3*LN(1-F8)</f>
+        <v>1.5490224133623025</v>
+      </c>
+      <c r="H8" s="8">
+        <f>G8+B8</f>
+        <v>10.765999733053974</v>
+      </c>
+      <c r="J8">
+        <f>J7</f>
+        <v>11.736200505183197</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8">
+        <v>40</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>6.7036242751785693</v>
+      </c>
+      <c r="W8" t="s">
+        <v>57</v>
+      </c>
+      <c r="X8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y8">
+        <v>3.2576230004627837E-2</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB8">
+        <v>2.6465283286988996</v>
+      </c>
+      <c r="AC8">
+        <v>12.646528328698899</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE8">
+        <f>B8</f>
+        <v>9.2169773196916722</v>
+      </c>
+      <c r="AF8">
+        <f>AE8+10</f>
+        <v>19.216977319691672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <f>H8</f>
+        <v>10.765999733053974</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>30.422101603610983</v>
+      </c>
+      <c r="F9">
+        <f>Rnd!A7</f>
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="G9">
+        <f>-3*LN(1-F9)</f>
+        <v>2.7526245413274233</v>
+      </c>
+      <c r="H9">
+        <f>G9+B9</f>
+        <v>13.518624274381397</v>
+      </c>
+      <c r="J9" s="8">
+        <f>J8</f>
+        <v>11.736200505183197</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9">
+        <v>40</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>6.7036242751785693</v>
+      </c>
+      <c r="W9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y9">
+        <v>3.2576230004627837E-2</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB9">
+        <v>2.6465283286988996</v>
+      </c>
+      <c r="AC9">
+        <v>12.646528328698899</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE9">
+        <v>9.2169773196916722</v>
+      </c>
+      <c r="AF9">
+        <v>19.216977319691672</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH9">
+        <f>B9</f>
+        <v>10.765999733053974</v>
+      </c>
+      <c r="AI9">
+        <f>AH9+10</f>
+        <v>20.765999733053974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <f>J9</f>
+        <v>11.736200505183197</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>30.422101603610983</v>
+      </c>
+      <c r="H10" s="8">
+        <f>H9</f>
+        <v>13.518624274381397</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f>+I10+B10</f>
+        <v>16.736200505183199</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10">
+        <v>39</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <f>V9+(B10-AB9)</f>
+        <v>15.793296451662867</v>
+      </c>
+      <c r="W10">
+        <f>V10/U10</f>
+        <v>15.793296451662867</v>
+      </c>
+      <c r="X10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y10">
+        <v>3.2576230004627837E-2</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB10">
+        <v>2.6465283286988996</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE10">
+        <v>9.2169773196916722</v>
+      </c>
+      <c r="AF10">
+        <v>19.216977319691672</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH10">
+        <v>10.765999733053974</v>
+      </c>
+      <c r="AI10">
+        <v>20.765999733053974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <f>H10</f>
+        <v>13.518624274381397</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>30.422101603610983</v>
+      </c>
+      <c r="F11">
+        <f>Rnd!A8</f>
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="G11">
+        <f>-3*LN(1-F11)</f>
+        <v>1.5090684351089094</v>
+      </c>
+      <c r="H11" s="8">
+        <f>G11+B11</f>
+        <v>15.027692709490307</v>
+      </c>
+      <c r="J11">
+        <v>16.736200505183199</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11">
+        <v>39</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>15.793296451662867</v>
+      </c>
+      <c r="W11">
+        <v>15.793296451662867</v>
+      </c>
+      <c r="X11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y11">
+        <v>3.2576230004627837E-2</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB11">
+        <v>2.6465283286988996</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE11">
+        <v>9.2169773196916722</v>
+      </c>
+      <c r="AF11">
+        <v>19.216977319691672</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH11">
+        <v>10.765999733053974</v>
+      </c>
+      <c r="AI11">
+        <v>20.765999733053974</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK11">
+        <f>B11</f>
+        <v>13.518624274381397</v>
+      </c>
+      <c r="AL11">
+        <f>AK11+10</f>
+        <v>23.518624274381395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <f>H11</f>
+        <v>15.027692709490307</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>30.422101603610983</v>
+      </c>
+      <c r="F12">
+        <f>Rnd!A9</f>
+        <v>0.36730000000000002</v>
+      </c>
+      <c r="G12">
+        <f>-3*LN(1-F12)</f>
+        <v>1.3732767084878952</v>
+      </c>
+      <c r="H12" s="8">
+        <f>G12+B12</f>
+        <v>16.400969417978203</v>
+      </c>
+      <c r="J12">
+        <f>J11</f>
+        <v>16.736200505183199</v>
+      </c>
+      <c r="K12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12">
+        <v>39</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>15.793296451662867</v>
+      </c>
+      <c r="W12">
+        <v>15.793296451662867</v>
+      </c>
+      <c r="X12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y12">
+        <v>3.2576230004627837E-2</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB12">
+        <v>2.6465283286988996</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE12">
+        <v>9.2169773196916722</v>
+      </c>
+      <c r="AF12">
+        <v>19.216977319691672</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH12">
+        <v>10.765999733053974</v>
+      </c>
+      <c r="AI12">
+        <v>20.765999733053974</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK12">
+        <v>13.518624274381397</v>
+      </c>
+      <c r="AL12">
+        <v>23.518624274381395</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN12">
+        <f>B12</f>
+        <v>15.027692709490307</v>
+      </c>
+      <c r="AO12">
+        <f>AN12+10</f>
+        <v>25.027692709490307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13">
+        <f>H12</f>
+        <v>16.400969417978203</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>30.422101603610983</v>
+      </c>
+      <c r="F13">
+        <f>Rnd!A10</f>
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="G13">
+        <f>-3*LN(1-F13)</f>
+        <v>2.2855631357092085</v>
+      </c>
+      <c r="H13" s="8">
+        <f>G13+B13</f>
+        <v>18.68653255368741</v>
+      </c>
+      <c r="J13" s="8">
+        <f>J12</f>
+        <v>16.736200505183199</v>
+      </c>
+      <c r="K13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13">
+        <v>39</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>15.793296451662867</v>
+      </c>
+      <c r="W13">
+        <v>15.793296451662867</v>
+      </c>
+      <c r="X13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y13">
+        <v>3.2576230004627837E-2</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13">
+        <v>2.6465283286988996</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE13">
+        <v>9.2169773196916722</v>
+      </c>
+      <c r="AF13">
+        <v>19.216977319691672</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH13">
+        <v>10.765999733053974</v>
+      </c>
+      <c r="AI13">
+        <v>20.765999733053974</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK13">
+        <v>13.518624274381397</v>
+      </c>
+      <c r="AL13">
+        <v>23.518624274381395</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN13">
+        <v>15.027692709490307</v>
+      </c>
+      <c r="AO13">
+        <v>25.027692709490307</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ13">
+        <f>+B13</f>
+        <v>16.400969417978203</v>
+      </c>
+      <c r="AR13">
+        <f>AQ13+10</f>
+        <v>26.400969417978203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14">
+        <f>J13</f>
+        <v>16.736200505183199</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>30.422101603610983</v>
+      </c>
+      <c r="H14" s="10">
+        <f>H13</f>
+        <v>18.68653255368741</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <f>+I14+B14</f>
+        <v>21.736200505183199</v>
+      </c>
+      <c r="K14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>65</v>
+      </c>
+      <c r="T14">
         <v>38</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z4" s="1" t="s">
-        <v>53</v>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <f>V13+(B14-AE14)</f>
+        <v>23.312519637154395</v>
+      </c>
+      <c r="W14">
+        <f>V14/U14</f>
+        <v>11.656259818577198</v>
+      </c>
+      <c r="X14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y14">
+        <v>3.2576230004627837E-2</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB14">
+        <v>2.6465283286988996</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE14">
+        <v>9.2169773196916722</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH14">
+        <v>10.765999733053974</v>
+      </c>
+      <c r="AI14">
+        <v>20.765999733053974</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK14">
+        <v>13.518624274381397</v>
+      </c>
+      <c r="AL14">
+        <v>23.518624274381395</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN14">
+        <v>15.027692709490307</v>
+      </c>
+      <c r="AO14">
+        <v>25.027692709490307</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ14">
+        <v>16.400969417978203</v>
+      </c>
+      <c r="AR14">
+        <v>26.400969417978203</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.67459999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.58160000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.8881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.98070000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.40329999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.60050000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.39529999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.36730000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.53320000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.29820000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.17019999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.76490000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.39090000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.45629999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.58830000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.46389999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.4773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.1028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.13189999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.32769999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.61780000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.20749999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.64190000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.72550000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.32350000000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resolucion ej221.xlsx
+++ b/Resolucion ej221.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Planteo" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="75">
   <si>
     <t>Planteo</t>
   </si>
@@ -300,6 +300,14 @@
   </si>
   <si>
     <t>Pasajero 7</t>
+  </si>
+  <si>
+    <t>Permanente</t>
+  </si>
+  <si>
+    <t>Libre
+Ocupada (con pasajeros pero sin colectivos)
+Cargando</t>
   </si>
 </sst>
 </file>
@@ -401,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -421,6 +429,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,9 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,6 +860,17 @@
         <v>68</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>22</v>
@@ -857,28 +878,28 @@
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -896,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AR14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +934,7 @@
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" customWidth="1"/>
     <col min="17" max="17" width="12.140625" customWidth="1"/>
     <col min="18" max="18" width="13.7109375" customWidth="1"/>
@@ -929,60 +950,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="7"/>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="X2" s="12" t="s">
+      <c r="T2" s="14"/>
+      <c r="X2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12" t="s">
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12" t="s">
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12" t="s">
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12" t="s">
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12" t="s">
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12" t="s">
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
     </row>
     <row r="3" spans="1:44" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1018,7 +1039,7 @@
       <c r="K3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="11" t="s">
         <v>67</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -1036,7 +1057,7 @@
       <c r="Q3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="S3" s="3" t="s">
@@ -2216,17 +2237,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Resolucion ej221.xlsx
+++ b/Resolucion ej221.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planteo" sheetId="1" r:id="rId1"/>
     <sheet name="Resolucion" sheetId="2" r:id="rId2"/>
     <sheet name="Rnd" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -76,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="94">
   <si>
     <t>Planteo</t>
   </si>
@@ -308,6 +311,63 @@
     <t>Libre
 Ocupada (con pasajeros pero sin colectivos)
 Cargando</t>
+  </si>
+  <si>
+    <t>Tpo LLeg Colectivo</t>
+  </si>
+  <si>
+    <t>Prox LLeg Colectivo</t>
+  </si>
+  <si>
+    <t>Tpo LLeg Pasajero</t>
+  </si>
+  <si>
+    <t>Prox LLeg Pasajero</t>
+  </si>
+  <si>
+    <t>Tpo Ascen Pasajero</t>
+  </si>
+  <si>
+    <t>Prox Fin Ascen Pasajero</t>
+  </si>
+  <si>
+    <t>Cola Parada</t>
+  </si>
+  <si>
+    <t>Max Cola Parada</t>
+  </si>
+  <si>
+    <t>Cant Pasajeros Retirados</t>
+  </si>
+  <si>
+    <t>Cola Colect</t>
+  </si>
+  <si>
+    <t>Tot Colect Cola</t>
+  </si>
+  <si>
+    <t>Tot Colect Sin Subir Pasaj</t>
+  </si>
+  <si>
+    <t>Porc Colect Sin Subir Pasaj</t>
+  </si>
+  <si>
+    <t>INICIO</t>
+  </si>
+  <si>
+    <t>LIBRE</t>
+  </si>
+  <si>
+    <t>CARGANDO</t>
+  </si>
+  <si>
+    <t>OCUPADA</t>
+  </si>
+  <si>
+    <t>∞</t>
+  </si>
+  <si>
+    <t>Caso en el que llega un colectivo y no hay nadie en cola, se retira sin parar no lo estamos contando como "Total colectivo cola"</t>
   </si>
 </sst>
 </file>
@@ -409,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -433,6 +493,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,7 +501,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,6 +535,163 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1227400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3533775"/>
+          <a:ext cx="10600000" cy="5371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>360625</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505825" y="3571875"/>
+          <a:ext cx="10600000" cy="5352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>84402</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>170780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="9667875"/>
+          <a:ext cx="10580952" cy="5361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>293951</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>132694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="12030075"/>
+          <a:ext cx="10590476" cy="5247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +1097,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -878,28 +1114,28 @@
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -917,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AR14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,60 +1186,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="7"/>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="X2" s="14" t="s">
+      <c r="T2" s="15"/>
+      <c r="X2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14" t="s">
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14" t="s">
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14" t="s">
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14" t="s">
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14" t="s">
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
     </row>
     <row r="3" spans="1:44" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1157,12 +1393,12 @@
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="G4">
-        <f>-3*LN(1-F4)</f>
-        <v>3.2576230004627837E-2</v>
+        <f>(-3/60)*LN(1-F4)</f>
+        <v>5.4293716674379733E-4</v>
       </c>
       <c r="H4" s="8">
         <f>G4</f>
-        <v>3.2576230004627837E-2</v>
+        <v>5.4293716674379733E-4</v>
       </c>
       <c r="I4" t="s">
         <v>57</v>
@@ -1207,7 +1443,7 @@
       </c>
       <c r="B5">
         <f>H4</f>
-        <v>3.2576230004627837E-2</v>
+        <v>5.4293716674379733E-4</v>
       </c>
       <c r="E5">
         <f>+E4</f>
@@ -1223,7 +1459,7 @@
       </c>
       <c r="H5" s="8">
         <f>G5+B5</f>
-        <v>2.6465283286988996</v>
+        <v>2.6144950358610153</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
@@ -1263,11 +1499,11 @@
       </c>
       <c r="Y5">
         <f>B5</f>
-        <v>3.2576230004627837E-2</v>
+        <v>5.4293716674379733E-4</v>
       </c>
       <c r="Z5">
         <f>Y5+10</f>
-        <v>10.032576230004628</v>
+        <v>10.000542937166744</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -1276,7 +1512,7 @@
       </c>
       <c r="B6">
         <f>H5</f>
-        <v>2.6465283286988996</v>
+        <v>2.6144950358610153</v>
       </c>
       <c r="E6" s="8">
         <f>E5</f>
@@ -1292,7 +1528,7 @@
       </c>
       <c r="H6">
         <f>G6+B6</f>
-        <v>9.2169773196916722</v>
+        <v>9.1849440268537883</v>
       </c>
       <c r="K6" t="s">
         <v>56</v>
@@ -1335,11 +1571,11 @@
       </c>
       <c r="AB6">
         <f>B6</f>
-        <v>2.6465283286988996</v>
+        <v>2.6144950358610153</v>
       </c>
       <c r="AC6">
         <f>+AB6+10</f>
-        <v>12.646528328698899</v>
+        <v>12.614495035861015</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -1364,7 +1600,7 @@
       </c>
       <c r="H7" s="8">
         <f>H6</f>
-        <v>9.2169773196916722</v>
+        <v>9.1849440268537883</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -1438,7 +1674,7 @@
       </c>
       <c r="B8">
         <f>H7</f>
-        <v>9.2169773196916722</v>
+        <v>9.1849440268537883</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E14" si="0">E7</f>
@@ -1454,7 +1690,7 @@
       </c>
       <c r="H8" s="8">
         <f>G8+B8</f>
-        <v>10.765999733053974</v>
+        <v>10.73396644021609</v>
       </c>
       <c r="J8">
         <f>J7</f>
@@ -1522,11 +1758,11 @@
       </c>
       <c r="AE8">
         <f>B8</f>
-        <v>9.2169773196916722</v>
+        <v>9.1849440268537883</v>
       </c>
       <c r="AF8">
         <f>AE8+10</f>
-        <v>19.216977319691672</v>
+        <v>19.184944026853788</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -1535,7 +1771,7 @@
       </c>
       <c r="B9">
         <f>H8</f>
-        <v>10.765999733053974</v>
+        <v>10.73396644021609</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -1551,7 +1787,7 @@
       </c>
       <c r="H9">
         <f>G9+B9</f>
-        <v>13.518624274381397</v>
+        <v>13.486590981543513</v>
       </c>
       <c r="J9" s="8">
         <f>J8</f>
@@ -1628,11 +1864,11 @@
       </c>
       <c r="AH9">
         <f>B9</f>
-        <v>10.765999733053974</v>
+        <v>10.73396644021609</v>
       </c>
       <c r="AI9">
         <f>AH9+10</f>
-        <v>20.765999733053974</v>
+        <v>20.73396644021609</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -1649,7 +1885,7 @@
       </c>
       <c r="H10" s="8">
         <f>H9</f>
-        <v>13.518624274381397</v>
+        <v>13.486590981543513</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -1742,7 +1978,7 @@
       </c>
       <c r="B11">
         <f>H10</f>
-        <v>13.518624274381397</v>
+        <v>13.486590981543513</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -1758,7 +1994,7 @@
       </c>
       <c r="H11" s="8">
         <f>G11+B11</f>
-        <v>15.027692709490307</v>
+        <v>14.995659416652423</v>
       </c>
       <c r="J11">
         <v>16.736200505183199</v>
@@ -1843,11 +2079,11 @@
       </c>
       <c r="AK11">
         <f>B11</f>
-        <v>13.518624274381397</v>
+        <v>13.486590981543513</v>
       </c>
       <c r="AL11">
         <f>AK11+10</f>
-        <v>23.518624274381395</v>
+        <v>23.486590981543515</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -1856,7 +2092,7 @@
       </c>
       <c r="B12">
         <f>H11</f>
-        <v>15.027692709490307</v>
+        <v>14.995659416652423</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -1872,7 +2108,7 @@
       </c>
       <c r="H12" s="8">
         <f>G12+B12</f>
-        <v>16.400969417978203</v>
+        <v>16.368936125140319</v>
       </c>
       <c r="J12">
         <f>J11</f>
@@ -1967,11 +2203,11 @@
       </c>
       <c r="AN12">
         <f>B12</f>
-        <v>15.027692709490307</v>
+        <v>14.995659416652423</v>
       </c>
       <c r="AO12">
         <f>AN12+10</f>
-        <v>25.027692709490307</v>
+        <v>24.995659416652423</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -1980,7 +2216,7 @@
       </c>
       <c r="B13">
         <f>H12</f>
-        <v>16.400969417978203</v>
+        <v>16.368936125140319</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -1996,7 +2232,7 @@
       </c>
       <c r="H13" s="8">
         <f>G13+B13</f>
-        <v>18.68653255368741</v>
+        <v>18.654499260849526</v>
       </c>
       <c r="J13" s="8">
         <f>J12</f>
@@ -2100,11 +2336,11 @@
       </c>
       <c r="AQ13">
         <f>+B13</f>
-        <v>16.400969417978203</v>
+        <v>16.368936125140319</v>
       </c>
       <c r="AR13">
         <f>AQ13+10</f>
-        <v>26.400969417978203</v>
+        <v>26.368936125140319</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -2121,7 +2357,7 @@
       </c>
       <c r="H14" s="10">
         <f>H13</f>
-        <v>18.68653255368741</v>
+        <v>18.654499260849526</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -2237,17 +2473,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2413,4 +2649,2953 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:S18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1.73</v>
+      </c>
+      <c r="F3" s="19">
+        <v>1.73</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19">
+        <v>0</v>
+      </c>
+      <c r="S3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1.73</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1.73</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="19">
+        <v>1</v>
+      </c>
+      <c r="N4" s="19">
+        <v>1</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1.73</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1.73</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1.74</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="19">
+        <v>2</v>
+      </c>
+      <c r="N5" s="19">
+        <v>2</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1.73</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1.74</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1.81</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="19">
+        <v>2</v>
+      </c>
+      <c r="N6" s="19">
+        <v>2</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+      <c r="R6" s="19">
+        <v>0</v>
+      </c>
+      <c r="S6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1.74</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="F7" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1.81</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="19">
+        <v>3</v>
+      </c>
+      <c r="N7" s="19">
+        <v>3</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="I8" s="19">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1.81</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="19">
+        <v>4</v>
+      </c>
+      <c r="N8" s="19">
+        <v>4</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>0</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1.81</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="F9" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="I9" s="19">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1.89</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="19">
+        <v>3</v>
+      </c>
+      <c r="N9" s="19">
+        <v>4</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>0</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0</v>
+      </c>
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1.89</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="I10" s="19">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <v>1.97</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="19">
+        <v>2</v>
+      </c>
+      <c r="N10" s="19">
+        <v>4</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0</v>
+      </c>
+      <c r="S10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1.97</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="I11" s="19">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="19">
+        <v>1</v>
+      </c>
+      <c r="N11" s="19">
+        <v>4</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0</v>
+      </c>
+      <c r="N12" s="19">
+        <v>4</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>0</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0</v>
+      </c>
+      <c r="S12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="F13" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="I13" s="19">
+        <v>3.47</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="19">
+        <v>1</v>
+      </c>
+      <c r="N13" s="19">
+        <v>4</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
+      <c r="S13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1.57</v>
+      </c>
+      <c r="F14" s="19">
+        <v>4.07</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="I14" s="19">
+        <v>3.47</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <v>2.58</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1</v>
+      </c>
+      <c r="N14" s="19">
+        <v>4</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0</v>
+      </c>
+      <c r="R14" s="19">
+        <v>0</v>
+      </c>
+      <c r="S14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2.58</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1.57</v>
+      </c>
+      <c r="F15" s="19">
+        <v>4.07</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="I15" s="19">
+        <v>3.47</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0</v>
+      </c>
+      <c r="N15" s="19">
+        <v>4</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>0</v>
+      </c>
+      <c r="R15" s="19">
+        <v>0</v>
+      </c>
+      <c r="S15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="19">
+        <v>3.47</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1.57</v>
+      </c>
+      <c r="F16" s="19">
+        <v>4.07</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="I16" s="19">
+        <v>4.33</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="19">
+        <v>1</v>
+      </c>
+      <c r="N16" s="19">
+        <v>4</v>
+      </c>
+      <c r="O16" s="19">
+        <v>0</v>
+      </c>
+      <c r="P16" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>0</v>
+      </c>
+      <c r="R16" s="19">
+        <v>0</v>
+      </c>
+      <c r="S16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="19">
+        <v>4.07</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.34</v>
+      </c>
+      <c r="E17" s="19">
+        <v>6.47</v>
+      </c>
+      <c r="F17" s="19">
+        <v>10.54</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="I17" s="19">
+        <v>4.33</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0</v>
+      </c>
+      <c r="K17" s="19">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="19">
+        <v>1</v>
+      </c>
+      <c r="N17" s="19">
+        <v>4</v>
+      </c>
+      <c r="O17" s="19">
+        <v>0</v>
+      </c>
+      <c r="P17" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>0</v>
+      </c>
+      <c r="R17" s="19">
+        <v>0</v>
+      </c>
+      <c r="S17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="19">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.34</v>
+      </c>
+      <c r="E18" s="19">
+        <v>6.47</v>
+      </c>
+      <c r="F18" s="19">
+        <v>10.54</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="I18" s="19">
+        <v>4.33</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="19">
+        <v>0</v>
+      </c>
+      <c r="N18" s="19">
+        <v>4</v>
+      </c>
+      <c r="O18" s="19">
+        <v>0</v>
+      </c>
+      <c r="P18" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>0</v>
+      </c>
+      <c r="R18" s="19">
+        <v>0</v>
+      </c>
+      <c r="S18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.42578125" style="23"/>
+    <col min="9" max="9" width="11.42578125" style="23"/>
+    <col min="11" max="11" width="11.42578125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E2" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F2" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G2" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="H2" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="I2" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+      <c r="K2" s="22">
+        <v>0</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="19">
+        <v>0</v>
+      </c>
+      <c r="N2" s="19">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19">
+        <v>0</v>
+      </c>
+      <c r="P2" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>0</v>
+      </c>
+      <c r="R2" s="19">
+        <v>0</v>
+      </c>
+      <c r="S2" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E3" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F3" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0.59</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="19">
+        <v>1</v>
+      </c>
+      <c r="N3" s="19">
+        <v>1</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19">
+        <v>0</v>
+      </c>
+      <c r="S3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.59</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E4" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F4" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="I4" s="22">
+        <v>1.23</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="19">
+        <v>2</v>
+      </c>
+      <c r="N4" s="19">
+        <v>2</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1.23</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E5" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F5" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="I5" s="22">
+        <v>1.42</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="19">
+        <v>3</v>
+      </c>
+      <c r="N5" s="19">
+        <v>3</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1.42</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E6" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F6" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.32</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I6" s="22">
+        <v>1.99</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="19">
+        <v>4</v>
+      </c>
+      <c r="N6" s="19">
+        <v>4</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+      <c r="R6" s="19">
+        <v>0</v>
+      </c>
+      <c r="S6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1.99</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E7" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F7" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.66</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="I7" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="19">
+        <v>5</v>
+      </c>
+      <c r="N7" s="19">
+        <v>5</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F8" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.79</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="I8" s="22">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="19">
+        <v>6</v>
+      </c>
+      <c r="N8" s="19">
+        <v>6</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>0</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E9" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F9" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.91</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="22">
+        <v>2.37</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="19">
+        <v>7</v>
+      </c>
+      <c r="N9" s="19">
+        <v>7</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>0</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0</v>
+      </c>
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2.37</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E10" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F10" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0.89</v>
+      </c>
+      <c r="I10" s="22">
+        <v>3.26</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="19">
+        <v>8</v>
+      </c>
+      <c r="N10" s="19">
+        <v>8</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0</v>
+      </c>
+      <c r="S10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="19">
+        <v>3.26</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E11" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F11" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.42</v>
+      </c>
+      <c r="I11" s="22">
+        <v>3.68</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="19">
+        <v>9</v>
+      </c>
+      <c r="N11" s="19">
+        <v>9</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="19">
+        <v>3.68</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E12" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F12" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.35</v>
+      </c>
+      <c r="I12" s="22">
+        <v>4.03</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="19">
+        <v>10</v>
+      </c>
+      <c r="N12" s="19">
+        <v>10</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>0</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0</v>
+      </c>
+      <c r="S12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="19">
+        <v>4.03</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E13" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F13" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0.49</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.36</v>
+      </c>
+      <c r="I13" s="22">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="19">
+        <v>11</v>
+      </c>
+      <c r="N13" s="19">
+        <v>11</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
+      <c r="S13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="19">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E14" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F14" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0.53</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.32</v>
+      </c>
+      <c r="I14" s="22">
+        <v>4.71</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="19">
+        <v>12</v>
+      </c>
+      <c r="N14" s="19">
+        <v>12</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0</v>
+      </c>
+      <c r="R14" s="19">
+        <v>0</v>
+      </c>
+      <c r="S14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="19">
+        <v>4.71</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="E15" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F15" s="22">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="22">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0</v>
+      </c>
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="19">
+        <v>13</v>
+      </c>
+      <c r="N15" s="19">
+        <v>13</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>0</v>
+      </c>
+      <c r="R15" s="19">
+        <v>0</v>
+      </c>
+      <c r="S15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="E16" s="19">
+        <v>15.15</v>
+      </c>
+      <c r="F16" s="22">
+        <v>20.21</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="I16" s="22">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
+        <v>5.14</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="19">
+        <v>13</v>
+      </c>
+      <c r="N16" s="19">
+        <v>13</v>
+      </c>
+      <c r="O16" s="19">
+        <v>0</v>
+      </c>
+      <c r="P16" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>0</v>
+      </c>
+      <c r="R16" s="19">
+        <v>0</v>
+      </c>
+      <c r="S16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="19">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="E17" s="19">
+        <v>15.15</v>
+      </c>
+      <c r="F17" s="22">
+        <v>20.21</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="22">
+        <v>5.21</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0</v>
+      </c>
+      <c r="K17" s="22">
+        <v>5.14</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="19">
+        <v>14</v>
+      </c>
+      <c r="N17" s="19">
+        <v>14</v>
+      </c>
+      <c r="O17" s="19">
+        <v>0</v>
+      </c>
+      <c r="P17" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>0</v>
+      </c>
+      <c r="R17" s="19">
+        <v>0</v>
+      </c>
+      <c r="S17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D2" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="E2" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0.34</v>
+      </c>
+      <c r="G2" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="H2" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="19">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19">
+        <v>0</v>
+      </c>
+      <c r="N2" s="19">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19">
+        <v>0</v>
+      </c>
+      <c r="P2" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>0</v>
+      </c>
+      <c r="R2" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D3" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="E3" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.61</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0.79</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="19">
+        <v>1</v>
+      </c>
+      <c r="M3" s="19">
+        <v>1</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.79</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="E4" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="19">
+        <v>2</v>
+      </c>
+      <c r="M4" s="19">
+        <v>2</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D5" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="E5" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.35</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1.33</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="19">
+        <v>3</v>
+      </c>
+      <c r="M5" s="19">
+        <v>3</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1.33</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D6" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="E6" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1.38</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="19">
+        <v>4</v>
+      </c>
+      <c r="M6" s="19">
+        <v>4</v>
+      </c>
+      <c r="N6" s="19">
+        <v>0</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+      <c r="R6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1.38</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D7" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="E7" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1.46</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="19">
+        <v>5</v>
+      </c>
+      <c r="M7" s="19">
+        <v>5</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1.46</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="E8" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1.26</v>
+      </c>
+      <c r="H8" s="19">
+        <v>2.72</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="19">
+        <v>6</v>
+      </c>
+      <c r="M8" s="19">
+        <v>6</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>0</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2.72</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="E9" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.79</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="H9" s="19">
+        <v>2.84</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="19">
+        <v>7</v>
+      </c>
+      <c r="M9" s="19">
+        <v>7</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>0</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2.84</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D10" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="19">
+        <v>3.24</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="19">
+        <v>8</v>
+      </c>
+      <c r="M10" s="19">
+        <v>8</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="19">
+        <v>3.24</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D11" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="E11" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="H11" s="19">
+        <v>3.37</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="19">
+        <v>9</v>
+      </c>
+      <c r="M11" s="19">
+        <v>9</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="19">
+        <v>3.37</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D12" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="E12" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="19">
+        <v>10</v>
+      </c>
+      <c r="M12" s="19">
+        <v>10</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>0</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="19">
+        <v>3.59</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D13" s="19">
+        <v>7.64</v>
+      </c>
+      <c r="E13" s="19">
+        <v>11.23</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <v>3.67</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="19">
+        <v>10</v>
+      </c>
+      <c r="M13" s="19">
+        <v>10</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="19">
+        <v>3.67</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D14" s="19">
+        <v>7.64</v>
+      </c>
+      <c r="E14" s="19">
+        <v>11.23</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>3.75</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="19">
+        <v>9</v>
+      </c>
+      <c r="M14" s="19">
+        <v>10</v>
+      </c>
+      <c r="N14" s="19">
+        <v>0</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0</v>
+      </c>
+      <c r="R14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="19">
+        <v>3.75</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D15" s="19">
+        <v>7.64</v>
+      </c>
+      <c r="E15" s="19">
+        <v>11.23</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>3.83</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="19">
+        <v>8</v>
+      </c>
+      <c r="M15" s="19">
+        <v>10</v>
+      </c>
+      <c r="N15" s="19">
+        <v>0</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>0</v>
+      </c>
+      <c r="R15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="19">
+        <v>3.83</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D16" s="19">
+        <v>7.64</v>
+      </c>
+      <c r="E16" s="19">
+        <v>11.23</v>
+      </c>
+      <c r="F16" s="19">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <v>3.91</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="19">
+        <v>7</v>
+      </c>
+      <c r="M16" s="19">
+        <v>10</v>
+      </c>
+      <c r="N16" s="19">
+        <v>0</v>
+      </c>
+      <c r="O16" s="19">
+        <v>0</v>
+      </c>
+      <c r="P16" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>0</v>
+      </c>
+      <c r="R16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="19">
+        <v>3.91</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D17" s="19">
+        <v>7.64</v>
+      </c>
+      <c r="E17" s="19">
+        <v>11.23</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
+        <v>3.99</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="19">
+        <v>6</v>
+      </c>
+      <c r="M17" s="19">
+        <v>10</v>
+      </c>
+      <c r="N17" s="19">
+        <v>0</v>
+      </c>
+      <c r="O17" s="19">
+        <v>0</v>
+      </c>
+      <c r="P17" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>0</v>
+      </c>
+      <c r="R17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>